--- a/DDAf_2022_tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -3000,7 +3000,7 @@
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="B114" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
